--- a/data/no_infectado2_sin_suero.xlsx
+++ b/data/no_infectado2_sin_suero.xlsx
@@ -1,53 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciomy\estadistica\Proyecto\Proyecto estadistica\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAD1E90-C84B-4D07-B0E4-284B692D0DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="7">
-  <si>
-    <t>Péptido</t>
-  </si>
-  <si>
-    <t>Concentración</t>
-  </si>
-  <si>
-    <t>Péptido 1</t>
-  </si>
-  <si>
-    <t>Péptido 2</t>
-  </si>
-  <si>
-    <t>Péptido 3</t>
-  </si>
-  <si>
-    <t>Péptido 4</t>
-  </si>
-  <si>
-    <t>Absorbancia</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,8 +54,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,55 +350,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>peptido</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>concentracion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>absorbancia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -464,9 +413,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -475,9 +426,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -486,42 +439,50 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -530,75 +491,89 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.5</v>
       </c>
       <c r="C15">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.5</v>
       </c>
       <c r="C16">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.5</v>
@@ -607,9 +582,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>2</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -618,9 +595,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>2</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -629,64 +608,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.5</v>
       </c>
       <c r="C20">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
       <c r="C21">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B23">
         <v>0.5</v>
       </c>
       <c r="C23">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>2</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.5</v>
       </c>
       <c r="C24">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.5</v>
@@ -695,9 +686,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>2</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B26">
         <v>0.5</v>
@@ -706,53 +699,63 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>2</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B31">
         <v>1</v>
@@ -761,20 +764,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>2</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B33">
         <v>1</v>
@@ -783,31 +790,37 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>2</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B36">
         <v>1</v>
@@ -816,9 +829,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>2</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B37">
         <v>1</v>
@@ -827,31 +842,37 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>2</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B40">
         <v>1</v>
@@ -860,75 +881,89 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>2</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>2</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>2</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>2</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B47">
         <v>1</v>
@@ -937,31 +972,37 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>2</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>2</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>2</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B50">
         <v>1</v>
@@ -970,9 +1011,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>2</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B51">
         <v>1</v>
@@ -981,86 +1024,102 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>3</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B52">
         <v>0.5</v>
       </c>
       <c r="C52">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B53">
         <v>0.5</v>
       </c>
       <c r="C53">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B54">
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B55">
         <v>0.5</v>
       </c>
       <c r="C55">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>3</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B56">
         <v>0.5</v>
       </c>
       <c r="C56">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B57">
         <v>0.5</v>
       </c>
       <c r="C57">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B58">
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B59">
         <v>0.5</v>
@@ -1069,9 +1128,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>3</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B60">
         <v>0.5</v>
@@ -1080,31 +1141,37 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>3</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B61">
         <v>0.5</v>
       </c>
       <c r="C61">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B62">
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B63">
         <v>0.5</v>
@@ -1113,9 +1180,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>3</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B64">
         <v>0.5</v>
@@ -1124,9 +1193,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>3</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B65">
         <v>0.5</v>
@@ -1135,9 +1206,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>3</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B66">
         <v>0.5</v>
@@ -1146,9 +1219,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>3</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -1157,86 +1232,102 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>3</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B68">
         <v>0.5</v>
       </c>
       <c r="C68">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B69">
         <v>0.5</v>
       </c>
       <c r="C69">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B70">
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B71">
         <v>0.5</v>
       </c>
       <c r="C71">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>3</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B72">
         <v>0.5</v>
       </c>
       <c r="C72">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B73">
         <v>0.5</v>
       </c>
       <c r="C73">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B74">
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B75">
         <v>0.5</v>
@@ -1245,218 +1336,258 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>3</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B76">
         <v>0.5</v>
       </c>
       <c r="C76">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1465,108 +1596,128 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>3</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>3</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>3</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>3</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>3</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>4</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B102">
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B103">
         <v>0.5</v>
       </c>
       <c r="C103">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>4</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B104">
         <v>0.5</v>
       </c>
       <c r="C104">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B105">
         <v>0.5</v>
@@ -1575,9 +1726,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>4</v>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B106">
         <v>0.5</v>
@@ -1586,53 +1739,63 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>4</v>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B107">
         <v>0.5</v>
       </c>
       <c r="C107">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>4</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B108">
         <v>0.5</v>
       </c>
       <c r="C108">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B109">
         <v>0.5</v>
       </c>
       <c r="C109">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B110">
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B111">
         <v>0.5</v>
@@ -1641,9 +1804,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>4</v>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B112">
         <v>0.5</v>
@@ -1652,20 +1817,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>4</v>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B113">
         <v>0.5</v>
       </c>
       <c r="C113">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B114">
         <v>0.5</v>
@@ -1674,9 +1843,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>4</v>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B115">
         <v>0.5</v>
@@ -1685,9 +1856,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>4</v>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B116">
         <v>0.5</v>
@@ -1696,9 +1869,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>4</v>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -1707,64 +1882,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>4</v>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B118">
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B119">
         <v>0.5</v>
       </c>
       <c r="C119">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>4</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B120">
         <v>0.5</v>
       </c>
       <c r="C120">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B121">
         <v>0.5</v>
       </c>
       <c r="C121">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B122">
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B123">
         <v>0.5</v>
@@ -1773,31 +1960,37 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>4</v>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B124">
         <v>0.5</v>
       </c>
       <c r="C124">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>4</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B125">
         <v>0.5</v>
       </c>
       <c r="C125">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B126">
         <v>0.5</v>
@@ -1806,31 +1999,37 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>4</v>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>4</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1839,64 +2038,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>4</v>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>4</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1905,64 +2116,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>4</v>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>4</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>4</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>4</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B141">
         <v>1</v>
@@ -1971,20 +2194,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>4</v>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1993,86 +2220,102 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>4</v>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>4</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>4</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>4</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>4</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2081,9 +2324,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>5</v>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B152">
         <v>0.5</v>
@@ -2092,42 +2337,50 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>5</v>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B153">
         <v>0.5</v>
       </c>
       <c r="C153">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B154">
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B155">
         <v>0.5</v>
       </c>
       <c r="C155">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>5</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B156">
         <v>0.5</v>
@@ -2136,9 +2389,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>5</v>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B157">
         <v>0.5</v>
@@ -2147,9 +2402,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>5</v>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B158">
         <v>0.5</v>
@@ -2158,53 +2415,63 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>5</v>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B159">
         <v>0.5</v>
       </c>
       <c r="C159">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B160">
         <v>0.5</v>
       </c>
       <c r="C160">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B161">
         <v>0.5</v>
       </c>
       <c r="C161">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B162">
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B163">
         <v>0.5</v>
@@ -2213,20 +2480,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>5</v>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B164">
         <v>0.5</v>
       </c>
       <c r="C164">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B165">
         <v>0.5</v>
@@ -2235,53 +2506,63 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>5</v>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B166">
         <v>0.5</v>
       </c>
       <c r="C166">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B167">
         <v>0.5</v>
       </c>
       <c r="C167">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B168">
         <v>0.5</v>
       </c>
       <c r="C168">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B169">
         <v>0.5</v>
       </c>
       <c r="C169">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B170">
         <v>0.5</v>
@@ -2290,9 +2571,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>5</v>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -2301,75 +2584,89 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>5</v>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B172">
         <v>0.5</v>
       </c>
       <c r="C172">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B173">
         <v>0.5</v>
       </c>
       <c r="C173">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>5</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B174">
         <v>0.5</v>
       </c>
       <c r="C174">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B175">
         <v>0.5</v>
       </c>
       <c r="C175">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B176">
         <v>0.5</v>
       </c>
       <c r="C176">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B178">
         <v>1</v>
@@ -2378,20 +2675,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>5</v>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B180">
         <v>1</v>
@@ -2400,9 +2701,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>5</v>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B181">
         <v>1</v>
@@ -2411,64 +2714,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>5</v>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B187">
         <v>1</v>
@@ -2477,20 +2792,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>5</v>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B189">
         <v>1</v>
@@ -2499,64 +2818,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>5</v>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>5</v>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B195">
         <v>1</v>
@@ -2565,64 +2896,76 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>5</v>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>5</v>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>5</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>5</v>
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>5</v>
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B201">
         <v>1</v>
